--- a/data/minfin/14_questions.xlsx
+++ b/data/minfin/14_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,29 +142,29 @@
     <t>Налоговая ставка по налогу на прибыль установлена в размере двадцати процентов</t>
   </si>
   <si>
+    <t>Размер, Ставка, Налог на прибыль организаций</t>
+  </si>
+  <si>
+    <t>Когда нужно подавать в налоговый орган налоговую декларацию по налогу на прибыль организаций?</t>
+  </si>
+  <si>
+    <t>Итоговая декларация по налогу на прибыль за год налогоплательщиком представляется не позднее двадцать восьмого марта года, следующего за отчетным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В соответствии со статьями 285 и 289 НК РФ промежуточная декларация по налогу на прибыль организаций представляется налогоплательщиком ежемесячно или ежеквартально, не позднее 28 дней со дня окончания соответствующего отчетного месяца или квартала.
+Итоговую декларацию по налогу на прибыль за год налогоплательщик представляет не позднее 28 марта года, следующего за истекшим отчетным годом
+</t>
+  </si>
+  <si>
+    <t>Когда, Подавать, Налоговый орган, Налоговая декларация, Налог, На прибыль организаций</t>
+  </si>
+  <si>
     <t xml:space="preserve">В соответствии со статьей 284 НК РФ налоговая ставка устанавливается в размере 20 процентов:
  - 2%  в федеральный бюджет (3% в 2017 - 2020 годах);
-- 18% в бюджет субъекта РФ (17 % в 2017-2020 годах). Законодательные органы субъектов РФ могут понижать ставку налога для отдельных категорий налогоплательщиков, но не более чем до 13,5% (12,5 % в 2017-2020 годах). 
+- 18% в бюджет субъекта РФ (17% в 2017-2020 годах). Законодательные органы субъектов РФ могут понижать ставку налога для отдельных категорий налогоплательщиков, но не более чем до 13,5% (12,5% в 2017-2020 годах). 
 Для отдельных видов деятельности установлена ставка 0%.
 Для отдельных категорий налогоплательщиков есть возможность снижать ставку до 0%
 </t>
-  </si>
-  <si>
-    <t>Размер, Ставка, Налог на прибыль организаций</t>
-  </si>
-  <si>
-    <t>Когда нужно подавать в налоговый орган налоговую декларацию по налогу на прибыль организаций?</t>
-  </si>
-  <si>
-    <t>Итоговая декларация по налогу на прибыль за год налогоплательщиком представляется не позднее двадцать восьмого марта года, следующего за отчетным</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В соответствии со статьями 285 и 289 НК РФ промежуточная декларация по налогу на прибыль организаций представляется налогоплательщиком ежемесячно или ежеквартально, не позднее 28 дней со дня окончания соответствующего отчетного месяца или квартала.
-Итоговую декларацию по налогу на прибыль за год налогоплательщик представляет не позднее 28 марта года, следующего за истекшим отчетным годом
-</t>
-  </si>
-  <si>
-    <t>Когда, Подавать, Налоговый орган, Налоговая декларация, Налог, На прибыль организаций</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,7 +590,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="126">
@@ -724,16 +724,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1">
